--- a/data/trans_orig/IP07C26_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C26_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8354FB9E-B89F-47E2-B404-9E4EBE422367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D36CBD50-CB5B-4D8D-A405-6B1D966321BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B1A42DCA-A0D4-4F1C-BD4F-9640022984D3}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{03933207-744A-468B-A9B1-1DA547461644}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,223 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
   </si>
   <si>
     <t>7,74%</t>
@@ -83,9 +296,6 @@
     <t>2,41%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>8,81%</t>
   </si>
   <si>
@@ -98,30 +308,6 @@
     <t>10,46%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>42,69%</t>
   </si>
   <si>
@@ -149,30 +335,6 @@
     <t>52,0%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>47,44%</t>
   </si>
   <si>
@@ -200,111 +362,123 @@
     <t>55,53%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
     <t>12,28%</t>
   </si>
   <si>
@@ -332,21 +506,6 @@
     <t>13,84%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
     <t>37,78%</t>
   </si>
   <si>
@@ -374,12 +533,6 @@
     <t>47,91%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
     <t>48,22%</t>
   </si>
   <si>
@@ -407,157 +560,40 @@
     <t>61,17%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
   </si>
   <si>
     <t>8,59%</t>
@@ -587,27 +623,6 @@
     <t>8,71%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
     <t>38,97%</t>
   </si>
   <si>
@@ -633,21 +648,6 @@
   </si>
   <si>
     <t>46,98%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
   </si>
   <si>
     <t>50,95%</t>
@@ -1066,7 +1066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908950F9-5B3B-41ED-A06E-3EA8511278A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233D51F5-BF87-4428-9CB0-45F1D7B21664}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1184,10 +1184,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>7881</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1199,238 +1199,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1374</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>11</v>
-      </c>
-      <c r="N4" s="7">
-        <v>9255</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1589</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1150</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2739</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>43491</v>
+        <v>636</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>27161</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>70652</v>
+        <v>636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1122</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>586</v>
+        <v>1701</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>48327</v>
+        <v>1109</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>27375</v>
+        <v>471</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>75702</v>
+        <v>1581</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1439,108 +1439,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>101874</v>
+        <v>2324</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H9" s="7">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>57060</v>
+        <v>1593</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="M9" s="7">
-        <v>197</v>
+        <v>7</v>
       </c>
       <c r="N9" s="7">
-        <v>158934</v>
+        <v>3918</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>3954</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1226</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>5180</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1549,13 +1549,13 @@
         <v>816</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1564,13 +1564,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -1579,121 +1579,121 @@
         <v>816</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>15302</v>
+        <v>3954</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="H12" s="7">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>14948</v>
+        <v>1226</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="M12" s="7">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>30249</v>
+        <v>5180</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>15302</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>14948</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>30249</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>21</v>
@@ -1702,13 +1702,13 @@
         <v>21893</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -1717,13 +1717,13 @@
         <v>15726</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -1732,13 +1732,13 @@
         <v>37618</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1753,13 +1753,13 @@
         <v>41965</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>47</v>
@@ -1768,13 +1768,13 @@
         <v>31899</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>96</v>
@@ -1783,270 +1783,270 @@
         <v>73863</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>6921</v>
+        <v>586</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>2376</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>9296</v>
+        <v>586</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>965</v>
+        <v>1589</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>965</v>
+        <v>2739</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>21285</v>
+        <v>7881</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="H18" s="7">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>22294</v>
+        <v>1374</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="M18" s="7">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="N18" s="7">
-        <v>43579</v>
+        <v>9255</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>43491</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="7">
         <v>40</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>27161</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>70652</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D20" s="7">
-        <v>27171</v>
+        <v>48327</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I20" s="7">
-        <v>31814</v>
+        <v>27375</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="N20" s="7">
-        <v>58985</v>
+        <v>75702</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,72 +2055,72 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="D21" s="7">
-        <v>56342</v>
+        <v>101874</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H21" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I21" s="7">
-        <v>56484</v>
+        <v>57060</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="M21" s="7">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="N21" s="7">
-        <v>112826</v>
+        <v>158934</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>636</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2129,34 +2129,34 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>636</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2180,13 +2180,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -2195,166 +2195,166 @@
         <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D24" s="7">
-        <v>579</v>
+        <v>3485</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="H24" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24" s="7">
-        <v>1122</v>
+        <v>2059</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="M24" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N24" s="7">
-        <v>1701</v>
+        <v>5545</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>23153</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>26136</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>126</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>49289</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D26" s="7">
-        <v>1109</v>
+        <v>37213</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="7">
+        <v>38</v>
+      </c>
+      <c r="I26" s="7">
+        <v>27313</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M26" s="7">
+        <v>77</v>
+      </c>
+      <c r="N26" s="7">
+        <v>64526</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>471</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M26" s="7">
-        <v>3</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1581</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,123 +2363,123 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D27" s="7">
-        <v>2324</v>
+        <v>63851</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="I27" s="7">
-        <v>1593</v>
+        <v>55509</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="N27" s="7">
-        <v>3918</v>
+        <v>119360</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>3485</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H28" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>2059</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="M28" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>5545</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2488,142 +2488,142 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D30" s="7">
-        <v>23153</v>
+        <v>6921</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="H30" s="7">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="I30" s="7">
-        <v>26136</v>
+        <v>2376</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="M30" s="7">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="N30" s="7">
-        <v>49289</v>
+        <v>9296</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>21285</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>22294</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>43579</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C32" s="7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D32" s="7">
-        <v>37213</v>
+        <v>27171</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>165</v>
@@ -2635,10 +2635,10 @@
         <v>167</v>
       </c>
       <c r="H32" s="7">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I32" s="7">
-        <v>27313</v>
+        <v>31814</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>168</v>
@@ -2650,10 +2650,10 @@
         <v>170</v>
       </c>
       <c r="M32" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N32" s="7">
-        <v>64526</v>
+        <v>58985</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>171</v>
@@ -2671,49 +2671,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D33" s="7">
-        <v>63851</v>
+        <v>56342</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H33" s="7">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I33" s="7">
-        <v>55509</v>
+        <v>56484</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="M33" s="7">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="N33" s="7">
-        <v>119360</v>
+        <v>112826</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,55 +2724,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>22878</v>
+        <v>586</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>174</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H34" s="7">
-        <v>11</v>
-      </c>
-      <c r="I34" s="7">
-        <v>7035</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>1</v>
+      </c>
+      <c r="N34" s="7">
+        <v>586</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="M34" s="7">
-        <v>38</v>
-      </c>
-      <c r="N34" s="7">
-        <v>29912</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>3</v>
@@ -2781,13 +2781,13 @@
         <v>3370</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -2796,13 +2796,13 @@
         <v>1150</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="M35" s="7">
         <v>4</v>
@@ -2811,112 +2811,112 @@
         <v>4520</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="7">
         <v>27</v>
       </c>
-      <c r="C36" s="7">
-        <v>121</v>
-      </c>
       <c r="D36" s="7">
-        <v>103810</v>
+        <v>22878</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H36" s="7">
+        <v>11</v>
+      </c>
+      <c r="I36" s="7">
+        <v>7035</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>38</v>
+      </c>
+      <c r="N36" s="7">
+        <v>29912</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="H36" s="7">
-        <v>120</v>
-      </c>
-      <c r="I36" s="7">
-        <v>91662</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="M36" s="7">
-        <v>241</v>
-      </c>
-      <c r="N36" s="7">
-        <v>195471</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="D37" s="7">
-        <v>586</v>
+        <v>103810</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H37" s="7">
+        <v>120</v>
+      </c>
+      <c r="I37" s="7">
+        <v>91662</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>241</v>
+      </c>
+      <c r="N37" s="7">
+        <v>195471</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="M37" s="7">
-        <v>1</v>
-      </c>
-      <c r="N37" s="7">
-        <v>586</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>203</v>
@@ -2925,7 +2925,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7">
         <v>154</v>
@@ -2985,13 +2985,13 @@
         <v>266356</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H39" s="7">
         <v>270</v>
@@ -3000,13 +3000,13 @@
         <v>202546</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="M39" s="7">
         <v>576</v>
@@ -3015,13 +3015,13 @@
         <v>468901</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C26_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C26_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D36CBD50-CB5B-4D8D-A405-6B1D966321BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F040A53-B943-477C-B46A-4C03F182E563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{03933207-744A-468B-A9B1-1DA547461644}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B9DBA5DC-6D32-41E3-988B-FE209ABD5AF8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="213">
   <si>
     <t>Menores según frecuencia de poder prestar atención en 2023 (Tasa respuesta: 30,0%)</t>
   </si>
@@ -68,502 +68,601 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,25%</t>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,71%</t>
@@ -572,109 +671,10 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -781,39 +781,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -865,7 +865,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -976,13 +976,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -991,6 +984,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1055,19 +1055,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233D51F5-BF87-4428-9CB0-45F1D7B21664}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E983E474-386F-4EF2-BE09-92BA12C779A4}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1184,10 +1204,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1109</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1199,91 +1219,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1581</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>579</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1122</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1701</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -1292,13 +1312,13 @@
         <v>636</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1307,13 +1327,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -1322,115 +1342,115 @@
         <v>636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>1122</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>1701</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1109</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>471</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>1581</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1492,106 +1512,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>21893</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>15726</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>37618</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7">
-        <v>816</v>
+        <v>15302</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>14948</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="N11" s="7">
-        <v>816</v>
+        <v>30249</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
@@ -1600,13 +1620,13 @@
         <v>3954</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1615,13 +1635,13 @@
         <v>1226</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -1630,112 +1650,112 @@
         <v>5180</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C13" s="7">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>15302</v>
+        <v>816</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>14948</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>30249</v>
+        <v>816</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C14" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>21893</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>15726</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="M14" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>37618</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>70</v>
@@ -1800,106 +1820,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D16" s="7">
-        <v>586</v>
+        <v>48327</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>27375</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="N16" s="7">
-        <v>586</v>
+        <v>75702</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D17" s="7">
-        <v>1589</v>
+        <v>43491</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I17" s="7">
-        <v>1150</v>
+        <v>27161</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="N17" s="7">
-        <v>2739</v>
+        <v>70652</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>9</v>
@@ -1908,13 +1928,13 @@
         <v>7881</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -1923,13 +1943,13 @@
         <v>1374</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -1938,115 +1958,115 @@
         <v>9255</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>43491</v>
+        <v>1589</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>27161</v>
+        <v>1150</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M19" s="7">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>70652</v>
+        <v>2739</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C20" s="7">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>48327</v>
+        <v>586</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>27375</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>75702</v>
+        <v>586</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2102,112 +2122,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>37213</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>27313</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>64526</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>23153</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>26136</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>49289</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C24" s="7">
         <v>4</v>
@@ -2216,13 +2236,13 @@
         <v>3485</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -2231,13 +2251,13 @@
         <v>2059</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -2246,115 +2266,115 @@
         <v>5545</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C25" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>23153</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="H25" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>26136</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="M25" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>49289</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C26" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>37213</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H26" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>27313</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M26" s="7">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>64526</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,112 +2430,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>27171</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>31814</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>58985</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D29" s="7">
-        <v>965</v>
+        <v>21285</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>22294</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="M29" s="7">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="N29" s="7">
-        <v>965</v>
+        <v>43579</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>8</v>
@@ -2524,13 +2544,13 @@
         <v>6921</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -2539,13 +2559,13 @@
         <v>2376</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="M30" s="7">
         <v>12</v>
@@ -2554,112 +2574,112 @@
         <v>9296</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C31" s="7">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>21285</v>
+        <v>965</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="H31" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>22294</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="M31" s="7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>43579</v>
+        <v>965</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C32" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>27171</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H32" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>31814</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>170</v>
       </c>
       <c r="M32" s="7">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>58985</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>173</v>
@@ -2724,106 +2744,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="D34" s="7">
-        <v>586</v>
+        <v>135712</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>174</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H34" s="7">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="I34" s="7">
-        <v>0</v>
+        <v>102700</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M34" s="7">
-        <v>1</v>
+        <v>292</v>
       </c>
       <c r="N34" s="7">
-        <v>586</v>
+        <v>238412</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="D35" s="7">
-        <v>3370</v>
+        <v>103810</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H35" s="7">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="I35" s="7">
-        <v>1150</v>
+        <v>91662</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="M35" s="7">
-        <v>4</v>
+        <v>241</v>
       </c>
       <c r="N35" s="7">
-        <v>4520</v>
+        <v>195471</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C36" s="7">
         <v>27</v>
@@ -2832,13 +2852,13 @@
         <v>22878</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="H36" s="7">
         <v>11</v>
@@ -2847,13 +2867,13 @@
         <v>7035</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M36" s="7">
         <v>38</v>
@@ -2862,115 +2882,115 @@
         <v>29912</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C37" s="7">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="D37" s="7">
-        <v>103810</v>
+        <v>3370</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H37" s="7">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="I37" s="7">
-        <v>91662</v>
+        <v>1150</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M37" s="7">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="N37" s="7">
-        <v>195471</v>
+        <v>4520</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C38" s="7">
-        <v>154</v>
+        <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>135712</v>
+        <v>586</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H38" s="7">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>102700</v>
+        <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>208</v>
+        <v>28</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>209</v>
       </c>
       <c r="M38" s="7">
-        <v>292</v>
+        <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>238412</v>
+        <v>586</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>210</v>
       </c>
       <c r="P38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,6 +3042,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C26_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C26_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F040A53-B943-477C-B46A-4C03F182E563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D1735DE-8766-4D1B-8A0D-A1D7D89F7197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B9DBA5DC-6D32-41E3-988B-FE209ABD5AF8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{26FE3E9D-C7A2-45E1-B6F6-9263AF4691B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="214">
   <si>
     <t>Menores según frecuencia de poder prestar atención en 2023 (Tasa respuesta: 30,0%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -86,10 +86,10 @@
     <t>40,35%</t>
   </si>
   <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -98,9 +98,6 @@
     <t>24,91%</t>
   </si>
   <si>
-    <t>77,16%</t>
-  </si>
-  <si>
     <t>70,41%</t>
   </si>
   <si>
@@ -110,7 +107,7 @@
     <t>12,45%</t>
   </si>
   <si>
-    <t>84,04%</t>
+    <t>86,75%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -119,7 +116,7 @@
     <t>27,37%</t>
   </si>
   <si>
-    <t>78,78%</t>
+    <t>84,26%</t>
   </si>
   <si>
     <t>0%</t>
@@ -131,7 +128,7 @@
     <t>16,24%</t>
   </si>
   <si>
-    <t>61,02%</t>
+    <t>61,82%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -149,490 +146,496 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>52,17%</t>
   </si>
   <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
   </si>
   <si>
     <t>49,3%</t>
   </si>
   <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
   </si>
   <si>
     <t>50,93%</t>
   </si>
   <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
     <t>39,01%</t>
   </si>
   <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
+    <t>6,37%</t>
   </si>
   <si>
     <t>6,38%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
   </si>
   <si>
     <t>1,27%</t>
@@ -641,28 +644,28 @@
     <t>0,31%</t>
   </si>
   <si>
-    <t>3,69%</t>
+    <t>3,94%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>2,97%</t>
+    <t>3,04%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>1,09%</t>
   </si>
   <si>
     <t>0,71%</t>
@@ -671,7 +674,7 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,53%</t>
+    <t>0,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1086,7 +1089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E983E474-386F-4EF2-BE09-92BA12C779A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95261BB3-F06F-491C-899A-90C1FEFB0958}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1267,7 +1270,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -1276,7 +1279,7 @@
         <v>1122</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
@@ -1291,19 +1294,19 @@
         <v>1701</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -1312,28 +1315,28 @@
         <v>636</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -1342,70 +1345,70 @@
         <v>636</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1417,40 +1420,40 @@
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1465,13 +1468,13 @@
         <v>2324</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -1480,13 +1483,13 @@
         <v>1593</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -1495,18 +1498,18 @@
         <v>3918</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1518,13 +1521,13 @@
         <v>21893</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -1533,13 +1536,13 @@
         <v>15726</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -1548,13 +1551,13 @@
         <v>37618</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1569,13 +1572,13 @@
         <v>15302</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -1584,13 +1587,13 @@
         <v>14948</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M11" s="7">
         <v>45</v>
@@ -1599,19 +1602,19 @@
         <v>30249</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
@@ -1620,13 +1623,13 @@
         <v>3954</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1635,13 +1638,13 @@
         <v>1226</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -1650,19 +1653,19 @@
         <v>5180</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1671,28 +1674,28 @@
         <v>816</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -1701,19 +1704,19 @@
         <v>816</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1725,40 +1728,40 @@
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,13 +1776,13 @@
         <v>41965</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>47</v>
@@ -1788,13 +1791,13 @@
         <v>31899</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>96</v>
@@ -1803,18 +1806,18 @@
         <v>73863</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1826,13 +1829,13 @@
         <v>48327</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -1841,13 +1844,13 @@
         <v>27375</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -1856,13 +1859,13 @@
         <v>75702</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,13 +1880,13 @@
         <v>43491</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -1892,13 +1895,13 @@
         <v>27161</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>90</v>
@@ -1907,19 +1910,19 @@
         <v>70652</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>9</v>
@@ -1928,13 +1931,13 @@
         <v>7881</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -1943,13 +1946,13 @@
         <v>1374</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -1958,19 +1961,19 @@
         <v>9255</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -1979,13 +1982,13 @@
         <v>1589</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1994,13 +1997,13 @@
         <v>1150</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2009,19 +2012,19 @@
         <v>2739</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -2030,28 +2033,28 @@
         <v>586</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2060,13 +2063,13 @@
         <v>586</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2081,13 +2084,13 @@
         <v>101874</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21" s="7">
         <v>79</v>
@@ -2096,13 +2099,13 @@
         <v>57060</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M21" s="7">
         <v>197</v>
@@ -2111,18 +2114,18 @@
         <v>158934</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2134,13 +2137,13 @@
         <v>37213</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -2149,13 +2152,13 @@
         <v>27313</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>77</v>
@@ -2164,13 +2167,13 @@
         <v>64526</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,13 +2188,13 @@
         <v>23153</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -2200,13 +2203,13 @@
         <v>26136</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -2215,19 +2218,19 @@
         <v>49289</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="7">
         <v>4</v>
@@ -2236,13 +2239,13 @@
         <v>3485</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -2251,13 +2254,13 @@
         <v>2059</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -2266,19 +2269,19 @@
         <v>5545</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -2290,46 +2293,46 @@
         <v>12</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2341,40 +2344,40 @@
         <v>12</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2392,13 @@
         <v>63851</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>66</v>
@@ -2404,13 +2407,13 @@
         <v>55509</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>131</v>
@@ -2419,18 +2422,18 @@
         <v>119360</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2442,13 +2445,13 @@
         <v>27171</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H28" s="7">
         <v>41</v>
@@ -2457,13 +2460,13 @@
         <v>31814</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M28" s="7">
         <v>76</v>
@@ -2472,13 +2475,13 @@
         <v>58985</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2496,13 @@
         <v>21285</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -2508,13 +2511,13 @@
         <v>22294</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M29" s="7">
         <v>56</v>
@@ -2523,19 +2526,19 @@
         <v>43579</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7">
         <v>8</v>
@@ -2544,13 +2547,13 @@
         <v>6921</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -2559,13 +2562,13 @@
         <v>2376</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M30" s="7">
         <v>12</v>
@@ -2574,19 +2577,19 @@
         <v>9296</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -2595,28 +2598,28 @@
         <v>965</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2625,19 +2628,19 @@
         <v>965</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -2649,7 +2652,7 @@
         <v>12</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>172</v>
@@ -2664,10 +2667,10 @@
         <v>12</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2679,7 +2682,7 @@
         <v>12</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>173</v>
@@ -2697,13 +2700,13 @@
         <v>56342</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33" s="7">
         <v>75</v>
@@ -2712,13 +2715,13 @@
         <v>56484</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M33" s="7">
         <v>145</v>
@@ -2727,13 +2730,13 @@
         <v>112826</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,10 +2771,10 @@
         <v>177</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M34" s="7">
         <v>292</v>
@@ -2780,13 +2783,13 @@
         <v>238412</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2804,13 @@
         <v>103810</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H35" s="7">
         <v>120</v>
@@ -2816,13 +2819,13 @@
         <v>91662</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M35" s="7">
         <v>241</v>
@@ -2831,10 +2834,10 @@
         <v>195471</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>190</v>
@@ -2843,7 +2846,7 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="7">
         <v>27</v>
@@ -2858,7 +2861,7 @@
         <v>192</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="H36" s="7">
         <v>11</v>
@@ -2867,13 +2870,13 @@
         <v>7035</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M36" s="7">
         <v>38</v>
@@ -2882,19 +2885,19 @@
         <v>29912</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="7">
         <v>3</v>
@@ -2903,13 +2906,13 @@
         <v>3370</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -2918,13 +2921,13 @@
         <v>1150</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -2933,19 +2936,19 @@
         <v>4520</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
@@ -2954,13 +2957,13 @@
         <v>586</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -2972,10 +2975,10 @@
         <v>12</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -2984,13 +2987,13 @@
         <v>586</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +3008,13 @@
         <v>266356</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39" s="7">
         <v>270</v>
@@ -3020,13 +3023,13 @@
         <v>202546</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M39" s="7">
         <v>576</v>
@@ -3035,18 +3038,18 @@
         <v>468901</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C26_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C26_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D1735DE-8766-4D1B-8A0D-A1D7D89F7197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59412B92-3355-4DAD-9D72-C463CBAE4EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{26FE3E9D-C7A2-45E1-B6F6-9263AF4691B0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{924D662F-C46F-4985-B4E2-6F101017E67D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="214">
-  <si>
-    <t>Menores según frecuencia de poder prestar atención en 2023 (Tasa respuesta: 30,0%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="198">
+  <si>
+    <t>Menores según frecuencia de poder prestar atención en 2023 (Tasa respuesta: 30,05%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,79 +65,112 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Siempre</t>
   </si>
   <si>
-    <t>47,72%</t>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>7,28%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -146,535 +179,454 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
   </si>
   <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
   </si>
   <si>
     <t>12,34%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1089,8 +1041,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95261BB3-F06F-491C-899A-90C1FEFB0958}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8168E6EC-69EE-479B-B3A5-3E2B57BF4AD9}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1207,10 +1159,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>1109</v>
+        <v>11575</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1222,142 +1174,142 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>471</v>
+        <v>25451</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="N4" s="7">
-        <v>1581</v>
+        <v>37026</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>579</v>
+        <v>17330</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>1122</v>
+        <v>16809</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="N5" s="7">
-        <v>1701</v>
+        <v>34139</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>636</v>
+        <v>2268</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>5761</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N6" s="7">
-        <v>636</v>
+        <v>8029</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1366,28 +1318,28 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1396,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1417,28 +1369,28 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1447,13 +1399,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1462,225 +1414,225 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7">
-        <v>2324</v>
+        <v>31173</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H9" s="7">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="I9" s="7">
-        <v>1593</v>
+        <v>48021</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="N9" s="7">
-        <v>3918</v>
+        <v>79194</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>21893</v>
+        <v>18363</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I10" s="7">
-        <v>15726</v>
+        <v>42461</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="N10" s="7">
-        <v>37618</v>
+        <v>60824</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7">
-        <v>15302</v>
+        <v>25812</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I11" s="7">
-        <v>14948</v>
+        <v>41633</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="N11" s="7">
-        <v>30249</v>
+        <v>67445</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>3954</v>
+        <v>7782</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I12" s="7">
-        <v>1226</v>
+        <v>16387</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="M12" s="7">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N12" s="7">
-        <v>5180</v>
+        <v>24170</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>816</v>
+        <v>1677</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1689,34 +1641,34 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>816</v>
+        <v>1677</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1725,43 +1677,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>2295</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>2295</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,276 +1722,276 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D15" s="7">
-        <v>41965</v>
+        <v>53633</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H15" s="7">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="I15" s="7">
-        <v>31899</v>
+        <v>102777</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M15" s="7">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="N15" s="7">
-        <v>73863</v>
+        <v>156410</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7">
-        <v>48327</v>
+        <v>21851</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
       </c>
       <c r="I16" s="7">
-        <v>27375</v>
+        <v>38924</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
+        <v>66</v>
+      </c>
+      <c r="N16" s="7">
+        <v>60775</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="N16" s="7">
-        <v>75702</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="P16" s="7" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D17" s="7">
-        <v>43491</v>
+        <v>43776</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I17" s="7">
-        <v>27161</v>
+        <v>20248</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="N17" s="7">
-        <v>70652</v>
+        <v>64024</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>7881</v>
+        <v>6556</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I18" s="7">
-        <v>1374</v>
+        <v>4938</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="M18" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N18" s="7">
-        <v>9255</v>
+        <v>11494</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>1589</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>1150</v>
+        <v>868</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>2739</v>
+        <v>868</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>586</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2048,28 +2000,28 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>586</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,261 +2030,261 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="D21" s="7">
-        <v>101874</v>
+        <v>72183</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H21" s="7">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I21" s="7">
-        <v>57060</v>
+        <v>64978</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M21" s="7">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="N21" s="7">
-        <v>158934</v>
+        <v>137161</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D22" s="7">
-        <v>37213</v>
+        <v>21765</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I22" s="7">
-        <v>27313</v>
+        <v>24111</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="N22" s="7">
-        <v>64526</v>
+        <v>45876</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D23" s="7">
-        <v>23153</v>
+        <v>25415</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I23" s="7">
-        <v>26136</v>
+        <v>23400</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="N23" s="7">
-        <v>49289</v>
+        <v>48815</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>3485</v>
+        <v>5526</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="H24" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I24" s="7">
-        <v>2059</v>
+        <v>6508</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="M24" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N24" s="7">
-        <v>5545</v>
+        <v>12034</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>777</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>2353</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>3130</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2341,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2356,13 +2308,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2371,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,261 +2338,261 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D27" s="7">
-        <v>63851</v>
+        <v>53483</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I27" s="7">
-        <v>55509</v>
+        <v>56371</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="N27" s="7">
-        <v>119360</v>
+        <v>109854</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="D28" s="7">
-        <v>27171</v>
+        <v>73552</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H28" s="7">
         <v>142</v>
       </c>
-      <c r="H28" s="7">
-        <v>41</v>
-      </c>
       <c r="I28" s="7">
-        <v>31814</v>
+        <v>130948</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="N28" s="7">
-        <v>58985</v>
+        <v>204500</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="D29" s="7">
-        <v>21285</v>
+        <v>112333</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="H29" s="7">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="I29" s="7">
-        <v>22294</v>
+        <v>102090</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="M29" s="7">
-        <v>56</v>
+        <v>244</v>
       </c>
       <c r="N29" s="7">
-        <v>43579</v>
+        <v>214422</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D30" s="7">
-        <v>6921</v>
+        <v>22133</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="H30" s="7">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="I30" s="7">
-        <v>2376</v>
+        <v>33594</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M30" s="7">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="N30" s="7">
-        <v>9296</v>
+        <v>55727</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D31" s="7">
-        <v>965</v>
+        <v>2454</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>3221</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N31" s="7">
-        <v>965</v>
+        <v>5675</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -2649,43 +2601,43 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H32" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>2295</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="M32" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N32" s="7">
-        <v>0</v>
+        <v>2295</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,370 +2646,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="D33" s="7">
-        <v>56342</v>
+        <v>210472</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H33" s="7">
-        <v>75</v>
+        <v>307</v>
       </c>
       <c r="I33" s="7">
-        <v>56484</v>
+        <v>272147</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M33" s="7">
-        <v>145</v>
+        <v>577</v>
       </c>
       <c r="N33" s="7">
-        <v>112826</v>
+        <v>482619</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>154</v>
-      </c>
-      <c r="D34" s="7">
-        <v>135712</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H34" s="7">
-        <v>138</v>
-      </c>
-      <c r="I34" s="7">
-        <v>102700</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="M34" s="7">
-        <v>292</v>
-      </c>
-      <c r="N34" s="7">
-        <v>238412</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="7">
-        <v>121</v>
-      </c>
-      <c r="D35" s="7">
-        <v>103810</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H35" s="7">
-        <v>120</v>
-      </c>
-      <c r="I35" s="7">
-        <v>91662</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M35" s="7">
-        <v>241</v>
-      </c>
-      <c r="N35" s="7">
-        <v>195471</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="7">
-        <v>27</v>
-      </c>
-      <c r="D36" s="7">
-        <v>22878</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H36" s="7">
-        <v>11</v>
-      </c>
-      <c r="I36" s="7">
-        <v>7035</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M36" s="7">
-        <v>38</v>
-      </c>
-      <c r="N36" s="7">
-        <v>29912</v>
-      </c>
-      <c r="O36" s="7" t="s">
+      <c r="A34" t="s">
         <v>197</v>
       </c>
-      <c r="P36" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="7">
-        <v>3</v>
-      </c>
-      <c r="D37" s="7">
-        <v>3370</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1150</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M37" s="7">
-        <v>4</v>
-      </c>
-      <c r="N37" s="7">
-        <v>4520</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="7">
-        <v>1</v>
-      </c>
-      <c r="D38" s="7">
-        <v>586</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M38" s="7">
-        <v>1</v>
-      </c>
-      <c r="N38" s="7">
-        <v>586</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>306</v>
-      </c>
-      <c r="D39" s="7">
-        <v>266356</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H39" s="7">
-        <v>270</v>
-      </c>
-      <c r="I39" s="7">
-        <v>202546</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M39" s="7">
-        <v>576</v>
-      </c>
-      <c r="N39" s="7">
-        <v>468901</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>213</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
